--- a/results/excels/VND.xlsx
+++ b/results/excels/VND.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/vnstock_analysis/results/excels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C7D6B-B20D-9E41-9195-8F0D4B1998EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27080" windowHeight="10700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -553,8 +559,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +623,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -663,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,9 +709,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,6 +761,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,14 +954,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="EN1" workbookViewId="0">
+      <selection activeCell="ES2" sqref="ES2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
+    <col min="38" max="38" width="26.6640625" customWidth="1"/>
+    <col min="39" max="39" width="25.6640625" customWidth="1"/>
+    <col min="40" max="40" width="33.1640625" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
+    <col min="48" max="48" width="28.83203125" customWidth="1"/>
+    <col min="49" max="49" width="25.33203125" customWidth="1"/>
+    <col min="50" max="50" width="35.1640625" customWidth="1"/>
+    <col min="65" max="65" width="19.5" customWidth="1"/>
+    <col min="66" max="66" width="20" customWidth="1"/>
+    <col min="67" max="67" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:168">
+    <row r="1" spans="1:168" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1483,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:168">
+    <row r="2" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>167</v>
       </c>
@@ -1920,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:168">
+    <row r="3" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -2426,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:168">
+    <row r="4" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>169</v>
       </c>
@@ -2932,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:168">
+    <row r="5" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>170</v>
       </c>
@@ -3438,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:168">
+    <row r="6" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
@@ -3944,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:168">
+    <row r="7" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>172</v>
       </c>
@@ -4450,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:168">
+    <row r="8" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>173</v>
       </c>
@@ -4956,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:168">
+    <row r="9" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>174</v>
       </c>
@@ -5462,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:168">
+    <row r="10" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5968,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:168">
+    <row r="11" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>176</v>
       </c>
@@ -6474,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:168">
+    <row r="12" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>

--- a/results/excels/VND.xlsx
+++ b/results/excels/VND.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/vnstock_analysis/results/excels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34468F77-67FF-7B43-86C5-0809BCAD6B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -301,8 +307,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +371,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,9 +457,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +509,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,14 +702,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:84">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +966,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1164,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -1418,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:84">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -1672,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:84">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -1926,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -2180,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:84">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2434,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:84">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -2688,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -2942,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -3196,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:84">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -3450,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:84">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
